--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -908,16 +908,16 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="3" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -928,19 +928,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2013</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2014</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2015</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>2016</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>2017</v>
       </c>
       <c r="H1" s="1">
@@ -954,23 +954,23 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1327</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>696</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>807</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>745</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>795.3+119.3</f>
         <v>914.59999999999991</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1159</v>
       </c>
     </row>
@@ -981,23 +981,23 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>36862</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>17726</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>16260</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>16880</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>26210+896</f>
         <v>27106</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>46200</v>
       </c>
     </row>
@@ -1008,22 +1008,22 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>136</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>55</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>63</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>71</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>79</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>120</v>
       </c>
     </row>
@@ -1034,23 +1034,23 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>857</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1080</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>890</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1011.63</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>954.3+37.69</f>
         <v>991.99</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>630</v>
       </c>
     </row>
@@ -1061,23 +1061,23 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>22467</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>22624</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>24026</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>31909</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>37632+255</f>
         <v>37887</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>24400</v>
       </c>
     </row>
@@ -1088,22 +1088,21 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>93</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>106</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>94</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>108</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>113</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1112,22 +1111,21 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>339</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>446</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>353</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>121</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>87.94</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1136,22 +1134,21 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>10808</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>8082</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>8086</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1375</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>3488</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1160,22 +1157,21 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>81</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>112</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>103</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>34</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1184,22 +1180,22 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>71</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>71</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>71</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>64</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>57</v>
       </c>
     </row>
@@ -1210,22 +1206,24 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1234,22 +1232,24 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1258,22 +1258,24 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1282,22 +1284,24 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>26</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>30</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>19</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1306,22 +1310,24 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1330,19 +1336,19 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <v>14</v>
       </c>
       <c r="H17" s="1">
@@ -1356,19 +1362,19 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>42</v>
       </c>
       <c r="H18" s="1">
@@ -1382,19 +1388,19 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1">
@@ -1408,19 +1414,19 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
       <c r="H20" s="1">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1103,9 @@
       <c r="G7" s="1">
         <v>113</v>
       </c>
+      <c r="H7" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1126,6 +1129,9 @@
       <c r="G8" s="1">
         <v>87.94</v>
       </c>
+      <c r="H8" s="1">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1149,6 +1155,9 @@
       <c r="G9" s="1">
         <v>3488</v>
       </c>
+      <c r="H9" s="1">
+        <v>4752</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1171,6 +1180,9 @@
       </c>
       <c r="G10" s="1">
         <v>34</v>
+      </c>
+      <c r="H10" s="1">
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Sport</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Zeit</t>
   </si>
   <si>
-    <t>Joggen</t>
-  </si>
-  <si>
     <t>Wandern</t>
   </si>
   <si>
@@ -71,6 +68,15 @@
   </si>
   <si>
     <t>Schwarzwaldalp</t>
+  </si>
+  <si>
+    <t>Velo</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Trail Running</t>
   </si>
 </sst>
 </file>
@@ -905,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,11 +923,11 @@
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="H1" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -971,10 +980,13 @@
         <v>914.59999999999991</v>
       </c>
       <c r="H2" s="1">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.9863013698630136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -998,10 +1010,13 @@
         <v>27106</v>
       </c>
       <c r="H3" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45897</v>
+      </c>
+      <c r="I3" s="1">
+        <v>125.74520547945205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1024,425 +1039,650 @@
         <v>79</v>
       </c>
       <c r="H4" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.30684931506849317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.20273972602739726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>302</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.82739726027397265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
         <v>857</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
         <v>1080</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="1">
         <v>890</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F8" s="1">
         <v>1011.63</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G8" s="1">
         <f>954.3+37.69</f>
         <v>991.99</v>
       </c>
-      <c r="H5" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H8" s="1">
+        <v>754</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.0657534246575344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="1">
         <v>22467</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
         <v>22624</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="1">
         <v>24026</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="1">
         <v>31909</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="1">
         <f>37632+255</f>
         <v>37887</v>
       </c>
-      <c r="H6" s="1">
-        <v>24400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>93</v>
-      </c>
-      <c r="D7" s="1">
-        <v>106</v>
-      </c>
-      <c r="E7" s="1">
-        <v>94</v>
-      </c>
-      <c r="F7" s="1">
-        <v>108</v>
-      </c>
-      <c r="G7" s="1">
-        <v>113</v>
-      </c>
-      <c r="H7" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>339</v>
-      </c>
-      <c r="D8" s="1">
-        <v>446</v>
-      </c>
-      <c r="E8" s="1">
-        <v>353</v>
-      </c>
-      <c r="F8" s="1">
-        <v>121</v>
-      </c>
-      <c r="G8" s="1">
-        <v>87.94</v>
-      </c>
-      <c r="H8" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10808</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8082</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8086</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1375</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3488</v>
-      </c>
       <c r="H9" s="1">
-        <v>4752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33361</v>
+      </c>
+      <c r="I9" s="1">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
+        <v>93</v>
+      </c>
+      <c r="D10" s="1">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1">
+        <v>108</v>
+      </c>
+      <c r="G10" s="1">
+        <v>113</v>
+      </c>
+      <c r="H10" s="1">
+        <v>89</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.24383561643835616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.7671232876712329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>384</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.0520547945205478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>339</v>
+      </c>
+      <c r="D14" s="1">
+        <v>446</v>
+      </c>
+      <c r="E14" s="1">
+        <v>353</v>
+      </c>
+      <c r="F14" s="1">
+        <v>121</v>
+      </c>
+      <c r="G14" s="1">
+        <v>87.94</v>
+      </c>
+      <c r="H14" s="1">
+        <v>217</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.59452054794520548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10808</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8082</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8086</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1375</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3488</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4946</v>
+      </c>
+      <c r="I15" s="1">
+        <v>13.550684931506849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
         <v>81</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D16" s="1">
         <v>112</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E16" s="1">
         <v>103</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F16" s="1">
         <v>50</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G16" s="1">
         <v>34</v>
       </c>
-      <c r="H10" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H16" s="1">
+        <v>87</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.23835616438356164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C17" s="1">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>66</v>
+      </c>
+      <c r="H17" s="1">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.16986301369863013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>71</v>
-      </c>
-      <c r="D11" s="1">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1">
-        <v>66</v>
-      </c>
-      <c r="H11" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="C20" s="1">
         <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1">
+        <v>42</v>
+      </c>
+      <c r="H24" s="1">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
-        <v>12</v>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4.1095890410958902E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Sport</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Trail Running</t>
+  </si>
+  <si>
+    <t>Include</t>
   </si>
 </sst>
 </file>
@@ -911,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,32 +961,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
-        <v>1327</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>807</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>745</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f>795.3+119.3</f>
-        <v>914.59999999999991</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1090</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>2.9863013698630136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -991,29 +990,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>36862</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="1">
-        <v>17726</v>
+        <v>696</v>
       </c>
       <c r="E3" s="1">
-        <v>16260</v>
+        <v>807</v>
       </c>
       <c r="F3" s="1">
-        <v>16880</v>
+        <v>745</v>
       </c>
       <c r="G3" s="1">
-        <f>26210+896</f>
-        <v>27106</v>
+        <f>795.3+119.3</f>
+        <v>914.59999999999991</v>
       </c>
       <c r="H3" s="1">
-        <v>45897</v>
+        <v>1090</v>
       </c>
       <c r="I3" s="1">
-        <v>125.74520547945205</v>
+        <v>2.9863013698630136</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,57 +1020,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>136</v>
+        <v>36862</v>
       </c>
       <c r="D4" s="1">
-        <v>55</v>
+        <v>17726</v>
       </c>
       <c r="E4" s="1">
-        <v>63</v>
+        <v>16260</v>
       </c>
       <c r="F4" s="1">
-        <v>71</v>
+        <v>16880</v>
       </c>
       <c r="G4" s="1">
-        <v>79</v>
+        <f>26210+896</f>
+        <v>27106</v>
       </c>
       <c r="H4" s="1">
-        <v>112</v>
+        <v>45897</v>
       </c>
       <c r="I4" s="1">
-        <v>0.30684931506849317</v>
+        <v>125.74520547945205</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1">
-        <v>0.20273972602739726</v>
+        <v>0.30684931506849317</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1">
-        <v>0.82739726027397265</v>
+        <v>0.20273972602739726</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1126,40 +1126,39 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="I7" s="1">
-        <v>2.4657534246575342E-2</v>
+        <v>0.82739726027397265</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1011.63</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f>954.3+37.69</f>
-        <v>991.99</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>754</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>2.0657534246575344</v>
+        <v>2.4657534246575342E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,29 +1166,29 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>22467</v>
+        <v>857</v>
       </c>
       <c r="D9" s="1">
-        <v>22624</v>
+        <v>1080</v>
       </c>
       <c r="E9" s="1">
-        <v>24026</v>
+        <v>890</v>
       </c>
       <c r="F9" s="1">
-        <v>31909</v>
+        <v>1011.63</v>
       </c>
       <c r="G9" s="1">
-        <f>37632+255</f>
-        <v>37887</v>
+        <f>954.3+37.69</f>
+        <v>991.99</v>
       </c>
       <c r="H9" s="1">
-        <v>33361</v>
+        <v>754</v>
       </c>
       <c r="I9" s="1">
-        <v>91.4</v>
+        <v>2.0657534246575344</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1197,57 +1196,58 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>93</v>
+        <v>22467</v>
       </c>
       <c r="D10" s="1">
-        <v>106</v>
+        <v>22624</v>
       </c>
       <c r="E10" s="1">
-        <v>94</v>
+        <v>24026</v>
       </c>
       <c r="F10" s="1">
-        <v>108</v>
+        <v>31909</v>
       </c>
       <c r="G10" s="1">
-        <v>113</v>
+        <f>37632+255</f>
+        <v>37887</v>
       </c>
       <c r="H10" s="1">
-        <v>89</v>
+        <v>33361</v>
       </c>
       <c r="I10" s="1">
-        <v>0.24383561643835616</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="H11" s="1">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1">
-        <v>8.7671232876712329E-2</v>
+        <v>0.24383561643835616</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0520547945205478</v>
+        <v>8.7671232876712329E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1302,39 +1302,39 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="I13" s="1">
-        <v>8.21917808219178E-3</v>
+        <v>1.0520547945205478</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
-        <v>339</v>
-      </c>
-      <c r="D14" s="1">
-        <v>446</v>
-      </c>
-      <c r="E14" s="1">
-        <v>353</v>
-      </c>
-      <c r="F14" s="1">
-        <v>121</v>
-      </c>
-      <c r="G14" s="1">
-        <v>87.94</v>
-      </c>
-      <c r="H14" s="1">
-        <v>217</v>
-      </c>
       <c r="I14" s="1">
-        <v>0.59452054794520548</v>
+        <v>8.21917808219178E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,28 +1342,28 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>10808</v>
+        <v>339</v>
       </c>
       <c r="D15" s="1">
-        <v>8082</v>
+        <v>446</v>
       </c>
       <c r="E15" s="1">
-        <v>8086</v>
+        <v>353</v>
       </c>
       <c r="F15" s="1">
-        <v>1375</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1">
-        <v>3488</v>
+        <v>87.94</v>
       </c>
       <c r="H15" s="1">
-        <v>4946</v>
+        <v>217</v>
       </c>
       <c r="I15" s="1">
-        <v>13.550684931506849</v>
+        <v>0.59452054794520548</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,193 +1371,193 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>81</v>
+        <v>10808</v>
       </c>
       <c r="D16" s="1">
-        <v>112</v>
+        <v>8082</v>
       </c>
       <c r="E16" s="1">
-        <v>103</v>
+        <v>8086</v>
       </c>
       <c r="F16" s="1">
-        <v>50</v>
+        <v>1375</v>
       </c>
       <c r="G16" s="1">
-        <v>34</v>
+        <v>3488</v>
       </c>
       <c r="H16" s="1">
-        <v>87</v>
+        <v>4946</v>
       </c>
       <c r="I16" s="1">
-        <v>0.23835616438356164</v>
+        <v>13.550684931506849</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I17" s="1">
-        <v>0.16986301369863013</v>
+        <v>0.23835616438356164</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.643835616438356E-2</v>
+        <v>66</v>
+      </c>
+      <c r="H18" s="1">
+        <v>62</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.16986301369863013</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>5.4794520547945206E-3</v>
+        <v>1.643835616438356E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>2.7397260273972603E-3</v>
+        <v>5.4794520547945206E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>2.7397260273972603E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1571,117 +1571,146 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.0958904109589041E-2</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>4.9315068493150684E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H25" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1">
-        <v>1.9178082191780823E-2</v>
+        <v>4.9315068493150684E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <v>15</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>4.1095890410958902E-2</v>
       </c>
     </row>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -43,9 +43,6 @@
     <t>Anzahl</t>
   </si>
   <si>
-    <t>Skitage</t>
-  </si>
-  <si>
     <t>Skitouren</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Include</t>
+  </si>
+  <si>
+    <t>Skifahren</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1455,152 +1455,152 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>1.643835616438356E-2</v>
+        <v>2.7397260273972603E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>5.4794520547945206E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>2.7397260273972603E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="H23" s="1">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4.9315068493150684E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1618,100 +1618,100 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0958904109589041E-2</v>
+        <v>1.9178082191780823E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1">
-        <v>4.9315068493150684E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
         <v>7</v>
       </c>
-      <c r="I26" s="1">
-        <v>1.9178082191780823E-2</v>
+      <c r="I26" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
       <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1">
-        <v>4.1095890410958902E-2</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -917,7 +917,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="1">
-        <v>0.16986301369863013</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -917,7 +917,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1012,7 @@
         <v>1090</v>
       </c>
       <c r="I3" s="1">
-        <v>2.9863013698630136</v>
+        <v>61.76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>45897</v>
       </c>
       <c r="I4" s="1">
-        <v>125.74520547945205</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>112</v>
       </c>
       <c r="I5" s="1">
-        <v>0.30684931506849317</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>74</v>
       </c>
       <c r="I6" s="1">
-        <v>0.20273972602739726</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>302</v>
       </c>
       <c r="I7" s="1">
-        <v>0.82739726027397265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>2.4657534246575342E-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>754</v>
       </c>
       <c r="I9" s="1">
-        <v>2.0657534246575344</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>33361</v>
       </c>
       <c r="I10" s="1">
-        <v>91.4</v>
+        <v>22230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="1">
-        <v>0.24383561643835616</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="1">
-        <v>8.7671232876712329E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>384</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0520547945205478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>8.21917808219178E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>217</v>
       </c>
       <c r="I15" s="1">
-        <v>0.59452054794520548</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>4946</v>
       </c>
       <c r="I16" s="1">
-        <v>13.550684931506849</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>87</v>
       </c>
       <c r="I17" s="1">
-        <v>0.23835616438356164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>2.7397260273972603E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0958904109589041E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>4.9315068493150684E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="1">
-        <v>1.9178082191780823E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="1">
-        <v>4.1095890410958902E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01 personal\05_Sport\running\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="19152" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="sportKR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -31,21 +36,9 @@
     <t>Hm</t>
   </si>
   <si>
-    <t>Zeit</t>
-  </si>
-  <si>
-    <t>Wandern</t>
-  </si>
-  <si>
     <t>Exersuisse</t>
   </si>
   <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Skitouren</t>
-  </si>
-  <si>
     <t>Niesen</t>
   </si>
   <si>
@@ -79,13 +72,25 @@
     <t>Include</t>
   </si>
   <si>
-    <t>Skifahren</t>
+    <t>Hiking</t>
+  </si>
+  <si>
+    <t>Skiing</t>
+  </si>
+  <si>
+    <t>Skitouring</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,6 +628,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -670,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +713,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,20 +925,20 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,9 +967,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -985,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1012,10 +1020,10 @@
         <v>1090</v>
       </c>
       <c r="I3" s="1">
-        <v>61.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1042,15 +1050,15 @@
         <v>45897</v>
       </c>
       <c r="I4" s="1">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>136</v>
@@ -1071,12 +1079,12 @@
         <v>112</v>
       </c>
       <c r="I5" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1103,9 +1111,9 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1132,12 +1140,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1161,9 +1169,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1188,12 +1196,12 @@
         <v>754</v>
       </c>
       <c r="I9" s="1">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>515.29999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1218,15 +1226,15 @@
         <v>33361</v>
       </c>
       <c r="I10" s="1">
-        <v>22230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>93</v>
@@ -1247,12 +1255,12 @@
         <v>89</v>
       </c>
       <c r="I11" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1276,12 +1284,12 @@
         <v>32</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1308,12 +1316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1334,12 +1342,12 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1363,12 +1371,12 @@
         <v>217</v>
       </c>
       <c r="I15" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1392,15 +1400,15 @@
         <v>4946</v>
       </c>
       <c r="I16" s="1">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <v>81</v>
@@ -1421,15 +1429,15 @@
         <v>87</v>
       </c>
       <c r="I17" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>71</v>
@@ -1450,15 +1458,15 @@
         <v>62</v>
       </c>
       <c r="I18" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1482,12 +1490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>26</v>
@@ -1511,12 +1519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1540,12 +1548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1569,12 +1577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1598,12 +1606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1624,15 +1632,15 @@
         <v>7</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -1653,15 +1661,15 @@
         <v>15</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -1685,12 +1693,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01 personal\05_Sport\running\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="19152" windowHeight="8508"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="sportKR" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Sport</t>
   </si>
@@ -922,23 +922,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1020,10 +1020,10 @@
         <v>1090</v>
       </c>
       <c r="I3" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>45897</v>
       </c>
       <c r="I4" s="1">
-        <v>14310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1079,10 +1079,10 @@
         <v>112</v>
       </c>
       <c r="I5" s="1">
-        <v>38.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1108,10 +1108,10 @@
         <v>74</v>
       </c>
       <c r="I6" s="1">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1137,10 +1137,10 @@
         <v>302</v>
       </c>
       <c r="I7" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1166,10 +1166,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1196,10 +1196,10 @@
         <v>754</v>
       </c>
       <c r="I9" s="1">
-        <v>515.29999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1226,10 +1226,10 @@
         <v>33361</v>
       </c>
       <c r="I10" s="1">
-        <v>28421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1255,10 +1255,10 @@
         <v>89</v>
       </c>
       <c r="I11" s="1">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1284,10 +1284,10 @@
         <v>32</v>
       </c>
       <c r="I12" s="1">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1371,10 +1371,10 @@
         <v>217</v>
       </c>
       <c r="I15" s="1">
-        <v>85.48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1400,10 +1400,10 @@
         <v>4946</v>
       </c>
       <c r="I16" s="1">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1429,10 +1429,10 @@
         <v>87</v>
       </c>
       <c r="I17" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1458,10 +1458,10 @@
         <v>62</v>
       </c>
       <c r="I18" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1632,10 +1632,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1661,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1720,6 +1720,35 @@
       </c>
       <c r="I27" s="2">
         <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3680</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1124</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1569</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2296</v>
+      </c>
+      <c r="I28" s="1">
+        <v>16853</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -922,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,10 +935,10 @@
     <col min="3" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,8 +966,11 @@
       <c r="I1" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -992,8 +995,11 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>27402</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1196,10 +1202,10 @@
         <v>754</v>
       </c>
       <c r="I9" s="1">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>902.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1226,10 +1232,10 @@
         <v>33361</v>
       </c>
       <c r="I10" s="1">
-        <v>39928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1255,10 +1261,10 @@
         <v>89</v>
       </c>
       <c r="I11" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1284,10 +1290,10 @@
         <v>32</v>
       </c>
       <c r="I12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1342,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1371,10 +1377,10 @@
         <v>217</v>
       </c>
       <c r="I15" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1400,10 +1406,10 @@
         <v>4946</v>
       </c>
       <c r="I16" s="1">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1429,10 +1435,10 @@
         <v>87</v>
       </c>
       <c r="I17" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1458,10 +1464,10 @@
         <v>62</v>
       </c>
       <c r="I18" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1489,8 +1495,9 @@
       <c r="I19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1518,8 +1525,9 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1547,8 +1555,9 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1661,10 +1670,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1692,8 +1701,9 @@
       <c r="I26" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1721,8 +1731,9 @@
       <c r="I27" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +1759,7 @@
         <v>2296</v>
       </c>
       <c r="I28" s="1">
-        <v>16853</v>
+        <v>19785</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -925,7 +925,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
         <v>4946</v>
       </c>
       <c r="I16" s="1">
-        <v>2463</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Sport</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Badminton</t>
   </si>
 </sst>
 </file>
@@ -922,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1028,6 +1031,9 @@
       <c r="I3" s="1">
         <v>606</v>
       </c>
+      <c r="J3" s="1">
+        <v>443</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1058,6 +1064,9 @@
       <c r="I4" s="1">
         <v>27402</v>
       </c>
+      <c r="J4" s="1">
+        <v>19456</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1087,6 +1096,9 @@
       <c r="I5" s="1">
         <v>68</v>
       </c>
+      <c r="J5" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1116,6 +1128,9 @@
       <c r="I6" s="1">
         <v>27</v>
       </c>
+      <c r="J6" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1145,6 +1160,9 @@
       <c r="I7" s="1">
         <v>103</v>
       </c>
+      <c r="J7" s="1">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1174,6 +1192,9 @@
       <c r="I8" s="1">
         <v>4</v>
       </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1204,6 +1225,9 @@
       <c r="I9" s="1">
         <v>902.2</v>
       </c>
+      <c r="J9" s="1">
+        <v>281</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1234,6 +1258,9 @@
       <c r="I10" s="1">
         <v>48918</v>
       </c>
+      <c r="J10" s="1">
+        <v>18039</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1263,6 +1290,9 @@
       <c r="I11" s="1">
         <v>122</v>
       </c>
+      <c r="J11" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1292,6 +1322,9 @@
       <c r="I12" s="1">
         <v>13.44</v>
       </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1321,6 +1354,9 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1350,6 +1386,9 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1379,6 +1418,9 @@
       <c r="I15" s="1">
         <v>133.19999999999999</v>
       </c>
+      <c r="J15" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1408,6 +1450,9 @@
       <c r="I16" s="1">
         <v>2625</v>
       </c>
+      <c r="J16" s="1">
+        <v>2202</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1437,6 +1482,9 @@
       <c r="I17" s="1">
         <v>56</v>
       </c>
+      <c r="J17" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1466,6 +1514,9 @@
       <c r="I18" s="1">
         <v>66</v>
       </c>
+      <c r="J18" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1495,7 +1546,9 @@
       <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1525,7 +1578,9 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1555,7 +1610,9 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1585,6 +1642,9 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1614,6 +1674,9 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1643,6 +1706,9 @@
       <c r="I24" s="1">
         <v>4</v>
       </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1672,6 +1738,9 @@
       <c r="I25" s="1">
         <v>35</v>
       </c>
+      <c r="J25" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1701,7 +1770,9 @@
       <c r="I26" s="2">
         <v>13</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1731,7 +1802,9 @@
       <c r="I27" s="2">
         <v>14</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1760,6 +1833,41 @@
       </c>
       <c r="I28" s="1">
         <v>19785</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
         <v>606</v>
       </c>
       <c r="J3" s="1">
-        <v>443</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>27402</v>
       </c>
       <c r="J4" s="1">
-        <v>19456</v>
+        <v>33577</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="1">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="1">
-        <v>27</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>902.2</v>
       </c>
       <c r="J9" s="1">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>48918</v>
       </c>
       <c r="J10" s="1">
-        <v>18039</v>
+        <v>20264</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>122</v>
       </c>
       <c r="J11" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>133.19999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>2625</v>
       </c>
       <c r="J16" s="1">
-        <v>2202</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>56</v>
       </c>
       <c r="J17" s="1">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
         <v>606</v>
       </c>
       <c r="J3" s="1">
-        <v>748</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>27402</v>
       </c>
       <c r="J4" s="1">
-        <v>33577</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="1">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>902.2</v>
       </c>
       <c r="J9" s="1">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>48918</v>
       </c>
       <c r="J10" s="1">
-        <v>20264</v>
+        <v>22878</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>122</v>
       </c>
       <c r="J11" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>133.19999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>2625</v>
       </c>
       <c r="J16" s="1">
-        <v>3264</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>56</v>
       </c>
       <c r="J17" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
         <v>606</v>
       </c>
       <c r="J3" s="1">
-        <v>1019</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>27402</v>
       </c>
       <c r="J4" s="1">
-        <v>45442</v>
+        <v>48865</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="1">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>902.2</v>
       </c>
       <c r="J9" s="1">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>48918</v>
       </c>
       <c r="J10" s="1">
-        <v>22878</v>
+        <v>24355</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>122</v>
       </c>
       <c r="J11" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>133.19999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>2625</v>
       </c>
       <c r="J16" s="1">
-        <v>3757</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>56</v>
       </c>
       <c r="J17" s="1">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,9 +57,6 @@
     <t>Gibel</t>
   </si>
   <si>
-    <t>Schwarzwaldalp</t>
-  </si>
-  <si>
     <t>Velo</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Badminton</t>
+  </si>
+  <si>
+    <t>Gauli</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>606</v>
       </c>
       <c r="J3" s="1">
-        <v>1112</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>27402</v>
       </c>
       <c r="J4" s="1">
-        <v>48865</v>
+        <v>76209</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>136</v>
@@ -1097,12 +1097,12 @@
         <v>68</v>
       </c>
       <c r="J5" s="1">
-        <v>115</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1129,12 +1129,12 @@
         <v>27</v>
       </c>
       <c r="J6" s="1">
-        <v>27.1</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1161,15 +1161,15 @@
         <v>103</v>
       </c>
       <c r="J7" s="1">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1193,12 +1193,12 @@
         <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1226,12 +1226,12 @@
         <v>902.2</v>
       </c>
       <c r="J9" s="1">
-        <v>370</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1259,15 +1259,15 @@
         <v>48918</v>
       </c>
       <c r="J10" s="1">
-        <v>24355</v>
+        <v>38196</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>93</v>
@@ -1291,12 +1291,12 @@
         <v>122</v>
       </c>
       <c r="J11" s="1">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1419,12 +1419,12 @@
         <v>133.19999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>156</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1451,15 +1451,15 @@
         <v>2625</v>
       </c>
       <c r="J16" s="1">
-        <v>4768</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>81</v>
@@ -1483,7 +1483,7 @@
         <v>56</v>
       </c>
       <c r="J17" s="1">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>71</v>
@@ -1523,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>26</v>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1707,47 +1707,47 @@
         <v>4</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
         <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1">
-        <v>35</v>
-      </c>
-      <c r="J25" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
         <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
         <v>6</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1835,7 @@
         <v>19785</v>
       </c>
       <c r="J28" s="1">
-        <v>6737</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,9 +939,10 @@
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +973,11 @@
       <c r="J1" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1001,8 +1005,11 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1032,10 +1039,13 @@
         <v>606</v>
       </c>
       <c r="J3" s="1">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1945</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1065,10 +1075,13 @@
         <v>27402</v>
       </c>
       <c r="J4" s="1">
-        <v>76209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89070</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1097,10 +1110,13 @@
         <v>68</v>
       </c>
       <c r="J5" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1129,10 +1145,13 @@
         <v>27</v>
       </c>
       <c r="J6" s="1">
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1161,10 +1180,13 @@
         <v>103</v>
       </c>
       <c r="J7" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1195,8 +1217,11 @@
       <c r="J8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1226,10 +1251,13 @@
         <v>902.2</v>
       </c>
       <c r="J9" s="1">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1259,10 +1287,13 @@
         <v>48918</v>
       </c>
       <c r="J10" s="1">
-        <v>38196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44420</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1291,10 +1322,13 @@
         <v>122</v>
       </c>
       <c r="J11" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1325,8 +1359,11 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1394,11 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1429,11 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1419,10 +1462,13 @@
         <v>133.19999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1451,10 +1497,13 @@
         <v>2625</v>
       </c>
       <c r="J16" s="1">
-        <v>6266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7981</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1483,10 +1532,13 @@
         <v>56</v>
       </c>
       <c r="J17" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1517,8 +1569,11 @@
       <c r="J18" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1549,8 +1604,11 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1581,8 +1639,11 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1613,8 +1674,11 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1645,8 +1709,11 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1677,8 +1744,11 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1709,8 +1779,11 @@
       <c r="J24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1741,8 +1814,11 @@
       <c r="J25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1773,8 +1849,11 @@
       <c r="J26" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1805,8 +1884,11 @@
       <c r="J27" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1834,11 +1916,14 @@
       <c r="I28" s="1">
         <v>19785</v>
       </c>
-      <c r="J28" s="1">
-        <v>2730</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <v>9916</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1868,6 +1953,9 @@
       </c>
       <c r="J29" s="1">
         <v>15</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>1945</v>
       </c>
       <c r="K3" s="1">
-        <v>815</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>89070</v>
       </c>
       <c r="K4" s="1">
-        <v>34599</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>207</v>
       </c>
       <c r="K5" s="1">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>38.9</v>
       </c>
       <c r="K6" s="1">
-        <v>29.7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>141</v>
       </c>
       <c r="K7" s="1">
-        <v>940</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>638</v>
       </c>
       <c r="K9" s="1">
-        <v>215</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>44420</v>
       </c>
       <c r="K10" s="1">
-        <v>8392</v>
+        <v>14068</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>301</v>
       </c>
       <c r="K15" s="1">
-        <v>36.9</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>7981</v>
       </c>
       <c r="K16" s="1">
-        <v>1423</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>109</v>
       </c>
       <c r="K17" s="1">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>1945</v>
       </c>
       <c r="K3" s="1">
-        <v>1068</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>89070</v>
       </c>
       <c r="K4" s="1">
-        <v>45613</v>
+        <v>66604</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>207</v>
       </c>
       <c r="K5" s="1">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>638</v>
       </c>
       <c r="K9" s="1">
-        <v>303</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,8 @@
         <v>44420</v>
       </c>
       <c r="K10" s="1">
-        <v>14068</v>
+        <f>24388+59</f>
+        <v>24447</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,7 +1326,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1465,7 +1466,7 @@
         <v>301</v>
       </c>
       <c r="K15" s="1">
-        <v>87.5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1500,7 +1501,7 @@
         <v>7981</v>
       </c>
       <c r="K16" s="1">
-        <v>2640</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1535,7 +1536,7 @@
         <v>109</v>
       </c>
       <c r="K17" s="1">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1570,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1885,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1920,7 +1921,7 @@
         <v>9916</v>
       </c>
       <c r="K28" s="1">
-        <v>55097</v>
+        <v>64420</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>638</v>
       </c>
       <c r="K9" s="1">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,8 +1290,7 @@
         <v>44420</v>
       </c>
       <c r="K10" s="1">
-        <f>24388+59</f>
-        <v>24447</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,7 +1325,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,8 +976,11 @@
       <c r="K1" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1008,8 +1011,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1044,8 +1050,11 @@
       <c r="K3" s="1">
         <v>1489</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1080,8 +1089,11 @@
       <c r="K4" s="1">
         <v>66604</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>17187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1115,8 +1127,11 @@
       <c r="K5" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1150,8 +1165,11 @@
       <c r="K6" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1185,8 +1203,11 @@
       <c r="K7" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1220,8 +1241,11 @@
       <c r="K8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1256,8 +1280,11 @@
       <c r="K9" s="1">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1292,8 +1319,11 @@
       <c r="K10" s="1">
         <v>24980</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1327,8 +1357,11 @@
       <c r="K11" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1362,8 +1395,11 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1397,8 +1433,11 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1432,8 +1471,11 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1467,8 +1509,11 @@
       <c r="K15" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1502,8 +1547,11 @@
       <c r="K16" s="1">
         <v>7084</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>15970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1537,8 +1585,11 @@
       <c r="K17" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1572,8 +1623,11 @@
       <c r="K18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1607,8 +1661,11 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1642,8 +1699,11 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1677,8 +1737,11 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1712,8 +1775,11 @@
       <c r="K22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +1813,11 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1780,10 +1849,13 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1889,11 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1852,8 +1927,11 @@
       <c r="K26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1887,8 +1965,11 @@
       <c r="K27" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1922,8 +2003,11 @@
       <c r="K28" s="1">
         <v>64420</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>37145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1955,6 +2039,9 @@
         <v>15</v>
       </c>
       <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,8 +979,9 @@
       <c r="L1" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1014,8 +1015,9 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>17187</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,9 @@
       <c r="L1" s="1">
         <v>2022</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1">
+        <v>2023</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1015,7 +1017,9 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1055,6 +1059,9 @@
       <c r="L3" s="1">
         <v>414</v>
       </c>
+      <c r="M3" s="1">
+        <v>685</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1094,6 +1101,9 @@
       <c r="L4" s="1">
         <v>17187</v>
       </c>
+      <c r="M4" s="1">
+        <v>32702</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1132,6 +1142,9 @@
       <c r="L5" s="1">
         <v>41</v>
       </c>
+      <c r="M5" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1170,6 +1183,9 @@
       <c r="L6" s="1">
         <v>88.8</v>
       </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1208,6 +1224,9 @@
       <c r="L7" s="1">
         <v>164</v>
       </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1246,6 +1265,9 @@
       <c r="L8" s="1">
         <v>6</v>
       </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1285,6 +1307,9 @@
       <c r="L9" s="1">
         <v>98</v>
       </c>
+      <c r="M9" s="1">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1324,6 +1349,9 @@
       <c r="L10" s="1">
         <v>4772</v>
       </c>
+      <c r="M10" s="1">
+        <v>13107</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1362,6 +1390,9 @@
       <c r="L11" s="1">
         <v>12</v>
       </c>
+      <c r="M11" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1400,6 +1431,9 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1438,6 +1472,9 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1476,6 +1513,9 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1514,6 +1554,9 @@
       <c r="L15" s="1">
         <v>261</v>
       </c>
+      <c r="M15" s="1">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1552,8 +1595,11 @@
       <c r="L16" s="1">
         <v>15970</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="L17" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1628,8 +1677,11 @@
       <c r="L18" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1666,8 +1718,11 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1704,8 +1759,11 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1742,8 +1800,11 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1780,8 +1841,11 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1818,8 +1882,11 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1856,8 +1923,11 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1894,8 +1964,11 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1971,7 +2044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2008,8 +2081,11 @@
       <c r="L28" s="1">
         <v>37145</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <v>9848</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2044,6 +2120,9 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -2005,6 +2005,9 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2042,6 +2045,9 @@
       </c>
       <c r="L27" s="2">
         <v>28</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A012052-863D-41EA-B892-F7471F577C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sportKR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -93,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,48 +596,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,9 +653,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,9 +693,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,7 +730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,7 +765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,14 +938,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="N3" sqref="N3:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -942,7 +956,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,8 +996,11 @@
       <c r="M1" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1020,8 +1037,11 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1062,8 +1082,11 @@
       <c r="M3" s="1">
         <v>685</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1104,8 +1127,11 @@
       <c r="M4" s="1">
         <v>32702</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1145,8 +1171,11 @@
       <c r="M5" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1186,8 +1215,11 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1227,8 +1259,11 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1268,8 +1303,11 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1348,11 @@
       <c r="M9" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1352,8 +1393,11 @@
       <c r="M10" s="1">
         <v>13107</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1393,8 +1437,11 @@
       <c r="M11" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1434,8 +1481,11 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1475,8 +1525,11 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1516,8 +1569,11 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1557,8 +1613,11 @@
       <c r="M15" s="1">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1598,8 +1657,11 @@
       <c r="M16" s="1">
         <v>487</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1639,8 +1701,11 @@
       <c r="M17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1680,8 +1745,11 @@
       <c r="M18" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1721,8 +1789,11 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1762,8 +1833,11 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1803,8 +1877,11 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1844,8 +1921,11 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1885,8 +1965,11 @@
       <c r="M23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1926,8 +2009,11 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1967,8 +2053,11 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2008,8 +2097,11 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2049,8 +2141,11 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2090,8 +2185,11 @@
       <c r="M28" s="1">
         <v>9848</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2129,6 +2227,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
         <v>0</v>
       </c>
     </row>
